--- a/hw2/test/test_Docker3_result.xlsx
+++ b/hw2/test/test_Docker3_result.xlsx
@@ -530,94 +530,94 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1738887142001088</v>
+        <v>0.1017391974426865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09939010458820137</v>
+        <v>0.4468873196960731</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2482457141275319</v>
+        <v>-0.6509728833370941</v>
       </c>
       <c r="E2" t="n">
-        <v>1.314810863385777</v>
+        <v>-0.6183173551112079</v>
       </c>
       <c r="F2" t="n">
-        <v>1.260127104195097</v>
+        <v>1.188974751606702</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.066653659163973</v>
+        <v>0.6536915881224341</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4222176851425842</v>
+        <v>-1.171700628734628</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3421423787947256</v>
+        <v>-1.324989881492473</v>
       </c>
       <c r="J2" t="n">
-        <v>1.420861120300141</v>
+        <v>-0.8496739772530293</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03926660549890702</v>
+        <v>-2.004407652180328</v>
       </c>
       <c r="L2" t="n">
-        <v>1.713225257748048</v>
+        <v>1.674962808791442</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.550182470224606</v>
+        <v>-2.335465876673182</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3555830008738398</v>
+        <v>0.550310577203778</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1834729642079374</v>
+        <v>-0.2323968723652445</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.704348016349125</v>
+        <v>-1.222906487218649</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.5353878979219956</v>
+        <v>0.6952268166383917</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2810847925266011</v>
+        <v>0.09826429096145782</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.3670281119704142</v>
+        <v>-0.1679805123874316</v>
       </c>
       <c r="T2" t="n">
-        <v>1.388879053873592</v>
+        <v>0.7982713105227479</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.09757544312694721</v>
+        <v>-1.229221679992071</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001794954518362622</v>
+        <v>-0.4470598783687131</v>
       </c>
       <c r="W2" t="n">
-        <v>1.322977715442548</v>
+        <v>1.194084861426602</v>
       </c>
       <c r="X2" t="n">
-        <v>0.7226645769645669</v>
+        <v>-0.04073103238467853</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.084302058973142</v>
+        <v>-0.9497957094896512</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1728978767398704</v>
+        <v>0.5895439946710159</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8755645509868906</v>
+        <v>0.5149338399560096</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.5812376924022171</v>
+        <v>0.8304919663802325</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.432213092387179</v>
+        <v>0.5952528346401007</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.323746998835434</v>
+        <v>0.346157681946404</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.3371561723638542</v>
+        <v>-0.2146787625443721</v>
       </c>
     </row>
     <row r="3">
@@ -625,94 +625,94 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.09966135559181</v>
+        <v>-0.3761297033835517</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.008118427916897</v>
+        <v>-0.83954267783942</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5675244655789212</v>
+        <v>0.8304781022768529</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.09576964767556545</v>
+        <v>0.9824856426006315</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.50829877826938</v>
+        <v>0.1873555919802436</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8019575281732509</v>
+        <v>0.8774290877452333</v>
       </c>
       <c r="H3" t="n">
-        <v>1.509311990094758</v>
+        <v>0.3419840956948831</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.5062108465726837</v>
+        <v>-3.156962821774391</v>
       </c>
       <c r="J3" t="n">
-        <v>2.359353251615597</v>
+        <v>0.09305556758367663</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2028688387693885</v>
+        <v>-0.5297198617694768</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5951052118428859</v>
+        <v>0.5071218390014532</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.668565338119631</v>
+        <v>1.322415212313939</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8333804503704638</v>
+        <v>-1.636206620224448</v>
       </c>
       <c r="O3" t="n">
-        <v>0.140636315222741</v>
+        <v>2.403655932616746</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.7667458979734286</v>
+        <v>-0.3229794540670017</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.7964070380234312</v>
+        <v>-0.5135940604841515</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.2543756501521712</v>
+        <v>0.08714559322422048</v>
       </c>
       <c r="S3" t="n">
-        <v>1.300490601720187</v>
+        <v>1.302605387188079</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.06565429106963</v>
+        <v>1.308274835455252</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2701342469048058</v>
+        <v>0.5133850467365398</v>
       </c>
       <c r="V3" t="n">
-        <v>-1.70024672615324</v>
+        <v>1.114758803688518</v>
       </c>
       <c r="W3" t="n">
-        <v>-1.044021902003544</v>
+        <v>-0.6453446188796648</v>
       </c>
       <c r="X3" t="n">
-        <v>-2.506074152111618</v>
+        <v>1.444226141771044</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.6048129989381543</v>
+        <v>-1.05612274633336</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1.084312939100878</v>
+        <v>-2.345009139305964</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.3604158244279733</v>
+        <v>-1.929495649622457</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.004044304810795012</v>
+        <v>0.9734218587635032</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.3686488970678036</v>
+        <v>1.103424501658514</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.3714704975087787</v>
+        <v>-1.670970957086083</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.3179835478466744</v>
+        <v>0.7800769012545756</v>
       </c>
     </row>
     <row r="4">
@@ -720,94 +720,94 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.844886280064959</v>
+        <v>-0.1553313557796855</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6491033870086954</v>
+        <v>-0.2144108118082205</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.545893966748016</v>
+        <v>0.2185703122438858</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3906284179762819</v>
+        <v>-0.2256703261843217</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4298020658646082</v>
+        <v>0.2585130772703131</v>
       </c>
       <c r="G4" t="n">
-        <v>1.093038181202844</v>
+        <v>0.1569881102580225</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.6821526115636101</v>
+        <v>0.3888251249127223</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1577831858048105</v>
+        <v>0.5271091674558321</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.6816203777642892</v>
+        <v>-0.136925726362969</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.3384652616680017</v>
+        <v>-0.2094352278948259</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06818539238437908</v>
+        <v>2.329978559407791</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4637810043814388</v>
+        <v>-1.594176531993037</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.3182592481693029</v>
+        <v>-0.592260680508137</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6698974230847023</v>
+        <v>1.51514452992672</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8288274379570761</v>
+        <v>-0.8393824625055325</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.7155086182506565</v>
+        <v>1.901944095136146</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.03623921838850295</v>
+        <v>0.1171511027298568</v>
       </c>
       <c r="S4" t="n">
-        <v>-1.395242846258542</v>
+        <v>0.6696390148807745</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4640973623096385</v>
+        <v>-1.392910327584686</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.4563073561432108</v>
+        <v>-0.2800221882474266</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.08751057379047375</v>
+        <v>-1.140109094592073</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.5377644560676944</v>
+        <v>-0.6675646024137354</v>
       </c>
       <c r="X4" t="n">
-        <v>-1.677274683999898</v>
+        <v>-0.650192287917291</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.430008702915688</v>
+        <v>2.867752332711848</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.4338134626528215</v>
+        <v>-2.120870590126268</v>
       </c>
       <c r="AA4" t="n">
-        <v>-2.448508256302105</v>
+        <v>-0.03055722446741429</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.8429544760726102</v>
+        <v>0.4803365513081752</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.362574293693262</v>
+        <v>-0.08664995741815862</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.111080207372217</v>
+        <v>0.5568320756480597</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.5630613240485782</v>
+        <v>0.4390967114622267</v>
       </c>
     </row>
     <row r="5">
@@ -815,94 +815,94 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5391040634961628</v>
+        <v>-0.2725340620463931</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1092528309950711</v>
+        <v>0.4490651587053872</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9082503462723744</v>
+        <v>-0.9293987212914187</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5110755317223209</v>
+        <v>-0.6411757888364871</v>
       </c>
       <c r="F5" t="n">
-        <v>2.137031609678807</v>
+        <v>-0.3616726996372985</v>
       </c>
       <c r="G5" t="n">
-        <v>1.249979779363596</v>
+        <v>1.275980346105281</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.7792334551277624</v>
+        <v>-0.6464645227343027</v>
       </c>
       <c r="I5" t="n">
-        <v>2.008461556500607</v>
+        <v>-0.833100105763617</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5384675514325319</v>
+        <v>-0.6071120567722832</v>
       </c>
       <c r="K5" t="n">
-        <v>1.648597186187518</v>
+        <v>0.4760893437522513</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08511803915533338</v>
+        <v>0.958325874229818</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008356259274394696</v>
+        <v>-1.167130782198569</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.9706778865962121</v>
+        <v>2.321211703391124</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7416925616545701</v>
+        <v>0.7569235722841036</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.02818617988359241</v>
+        <v>0.1725192010696779</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2283694317186154</v>
+        <v>0.7140821455182704</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.6395974173716596</v>
+        <v>2.261345831740325</v>
       </c>
       <c r="S5" t="n">
-        <v>0.434999691549559</v>
+        <v>1.621093133737915</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.301191641919242</v>
+        <v>1.965969156436012</v>
       </c>
       <c r="U5" t="n">
-        <v>-1.482479066604506</v>
+        <v>-0.005588879217844418</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8060613511816096</v>
+        <v>-0.9263483216939992</v>
       </c>
       <c r="W5" t="n">
-        <v>1.517651513492178</v>
+        <v>-1.667713457138556</v>
       </c>
       <c r="X5" t="n">
-        <v>1.026731844410206</v>
+        <v>1.915504463733137</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.21659878266689</v>
+        <v>1.141026616031197</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1.10929790906706</v>
+        <v>-0.3306760185729355</v>
       </c>
       <c r="AA5" t="n">
-        <v>-1.987034418521398</v>
+        <v>-1.673431112345707</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2457540340920073</v>
+        <v>0.2252650165196585</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.240952321349987</v>
+        <v>0.2166956919840016</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.042663439118606</v>
+        <v>0.1247707147600514</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.5696806047883824</v>
+        <v>-2.477001359624822</v>
       </c>
     </row>
     <row r="6">
@@ -910,94 +910,94 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.153412616156834</v>
+        <v>-0.4999064892063453</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.372108695025504</v>
+        <v>0.1454030695038864</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1141323727180677</v>
+        <v>0.9751717867387835</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03637569205503917</v>
+        <v>0.7427857426001572</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.446574626106934</v>
+        <v>0.1137863360089565</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7661940239630929</v>
+        <v>-1.427203186182869</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5135062297738106</v>
+        <v>-0.6792689934355324</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.348992144132893</v>
+        <v>-1.890239937513856</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2967056121308276</v>
+        <v>1.424569346311136</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.5605809483026136</v>
+        <v>-1.490701167742144</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.9099015934938062</v>
+        <v>-2.518712806721107</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.58378900489844</v>
+        <v>-0.9479011740051588</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1597512588549861</v>
+        <v>-0.7659038169113067</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.5936591851201296</v>
+        <v>1.830897912691271</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.7565233380901728</v>
+        <v>-1.660762756584462</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.4934601724668357</v>
+        <v>-0.0594463132155779</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4347754482480769</v>
+        <v>0.4520356935004527</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.6050452183494945</v>
+        <v>0.5601080427836559</v>
       </c>
       <c r="T6" t="n">
-        <v>1.921827860263827</v>
+        <v>1.269747471947193</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4082977271260408</v>
+        <v>-0.9301444149077011</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.069046164721589</v>
+        <v>0.2630163583245679</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.3362547900394419</v>
+        <v>1.074563673952234</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.866243927262436</v>
+        <v>-1.163749373707881</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.899751858694503</v>
+        <v>-0.3040452601158024</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.04507175556525556</v>
+        <v>-0.4902912748463802</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.0672825431215386</v>
+        <v>0.1757212652392347</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.4184934720150182</v>
+        <v>0.2304516059421705</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.6558745706657159</v>
+        <v>-1.766170577532586</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2013115719454956</v>
+        <v>0.7779987106033512</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.6505021434274856</v>
+        <v>-0.3615889738647999</v>
       </c>
     </row>
     <row r="7">
@@ -1005,94 +1005,94 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5684658319210378</v>
+        <v>-0.526488588961078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8314985654771866</v>
+        <v>-0.07007855249098255</v>
       </c>
       <c r="D7" t="n">
-        <v>0.48738116745496</v>
+        <v>-1.383213153422368</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.594190741149687</v>
+        <v>-0.009180724736136814</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8963304909455749</v>
+        <v>0.1352103126318984</v>
       </c>
       <c r="G7" t="n">
-        <v>1.25611261236775</v>
+        <v>-0.5737236966170987</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2802917254898247</v>
+        <v>0.1324573708252667</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.29269209534175</v>
+        <v>0.3942759499071638</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.213026012662982</v>
+        <v>1.802187587413145</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.07626845093820378</v>
+        <v>-0.9101079015920216</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.8360466296493902</v>
+        <v>0.1151036118892403</v>
       </c>
       <c r="M7" t="n">
-        <v>0.563717356321166</v>
+        <v>1.043742464386717</v>
       </c>
       <c r="N7" t="n">
-        <v>1.069234341746534</v>
+        <v>-0.2466398807950564</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.8684055239120724</v>
+        <v>1.577377625327903</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.5274736363339103</v>
+        <v>-0.9501670211008663</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.389188769128158</v>
+        <v>-0.691780114209121</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.4098733864295356</v>
+        <v>-0.7017025529006028</v>
       </c>
       <c r="S7" t="n">
-        <v>1.536833479502846</v>
+        <v>0.6539745960504466</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8697975535465979</v>
+        <v>-0.1896981676020684</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.04476766623432238</v>
+        <v>-0.9527193931003082</v>
       </c>
       <c r="V7" t="n">
-        <v>1.181788122194848</v>
+        <v>0.2647960008923137</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.2857896619456177</v>
+        <v>-0.1878784407047816</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.4553904806494433</v>
+        <v>0.7291242623201554</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.124295230077146</v>
+        <v>-1.845411074851847</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5453817461252332</v>
+        <v>-0.6674274102440391</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.857046592947919</v>
+        <v>1.090361907302436</v>
       </c>
       <c r="AB7" t="n">
-        <v>-1.638525702313585</v>
+        <v>-0.1946033495836347</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.8432996430455419</v>
+        <v>-0.4296345723393765</v>
       </c>
       <c r="AD7" t="n">
-        <v>-1.58156382734798</v>
+        <v>1.782112081472434</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.7890495131149385</v>
+        <v>1.37401927682441</v>
       </c>
     </row>
     <row r="8">
@@ -1100,94 +1100,94 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4738264502869659</v>
+        <v>-0.9931436423173288</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.340723047889205</v>
+        <v>1.718378275197855</v>
       </c>
       <c r="D8" t="n">
-        <v>0.490788430260006</v>
+        <v>-0.2959951090712782</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4455696444461202</v>
+        <v>-1.159997764787516</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1445823542536354</v>
+        <v>-0.4598562615078046</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5238324460408403</v>
+        <v>-0.8936693863876531</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.6079990573144129</v>
+        <v>0.1409177993816625</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1313342837340449</v>
+        <v>0.3821645575588966</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007368904444075248</v>
+        <v>-0.1376137751861287</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.298465353565701</v>
+        <v>0.2646582543648756</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4096712302125566</v>
+        <v>-1.265902451740598</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.547774383071973</v>
+        <v>0.7271453699048207</v>
       </c>
       <c r="N8" t="n">
-        <v>1.042820104116793</v>
+        <v>0.2169471770796727</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.4899891912054118</v>
+        <v>-0.620988176693987</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.236589765945342</v>
+        <v>-0.09772078439707685</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.7627908428782698</v>
+        <v>-1.488886307857487</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8427876769258043</v>
+        <v>0.5905717710934606</v>
       </c>
       <c r="S8" t="n">
-        <v>1.156184883303383</v>
+        <v>0.3009273640986799</v>
       </c>
       <c r="T8" t="n">
-        <v>-1.681602685416971</v>
+        <v>-0.5375617184450605</v>
       </c>
       <c r="U8" t="n">
-        <v>-1.365922300678158</v>
+        <v>1.282230890407062</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7869344798569819</v>
+        <v>1.137118320620334</v>
       </c>
       <c r="W8" t="n">
-        <v>1.698242283986168</v>
+        <v>-0.4214061935964565</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.7236686102133957</v>
+        <v>0.7867818537621363</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.250335479854909</v>
+        <v>-0.2649865989723738</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.035503031921812</v>
+        <v>-0.5273088246885158</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4658750620322483</v>
+        <v>-0.05826686233806835</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.3629550950631629</v>
+        <v>-0.1811745804431461</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1535055468911113</v>
+        <v>1.237175021705473</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.4728641286056116</v>
+        <v>1.04061461011731</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.2243207809121353</v>
+        <v>1.432321641050661</v>
       </c>
     </row>
     <row r="9">
@@ -1195,94 +1195,94 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3765159499587581</v>
+        <v>-1.783004946915071</v>
       </c>
       <c r="C9" t="n">
-        <v>0.614250918169958</v>
+        <v>0.8129410082243443</v>
       </c>
       <c r="D9" t="n">
-        <v>0.344821291500005</v>
+        <v>-0.8250860657116011</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1664845195074906</v>
+        <v>-0.07489974912003508</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1365746194563943</v>
+        <v>1.171999786175659</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.09015639227912708</v>
+        <v>-0.293515646907331</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.164188931949294</v>
+        <v>-0.4128714590645334</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3317725578499202</v>
+        <v>1.071884132432887</v>
       </c>
       <c r="J9" t="n">
-        <v>1.555654468941762</v>
+        <v>-0.8418195894119472</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4035907618280742</v>
+        <v>-0.2055511689051249</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.559793084606531</v>
+        <v>-0.4448170734319614</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.423072300527375</v>
+        <v>1.020792234095583</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.5400355217833088</v>
+        <v>-0.0988827093294006</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6499254382539741</v>
+        <v>-0.4414555963579923</v>
       </c>
       <c r="P9" t="n">
-        <v>1.14230269451581</v>
+        <v>-1.195665115286718</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.6005505976721065</v>
+        <v>-0.06489370206897711</v>
       </c>
       <c r="R9" t="n">
-        <v>2.752748050243455</v>
+        <v>-0.05590676657269601</v>
       </c>
       <c r="S9" t="n">
-        <v>1.530967368011939</v>
+        <v>-1.094943300248762</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.1502407313088773</v>
+        <v>-0.4215567771070539</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1559822788476714</v>
+        <v>1.332121591852351</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4348266336634381</v>
+        <v>0.2579117274143046</v>
       </c>
       <c r="W9" t="n">
-        <v>-1.745678917084485</v>
+        <v>0.3169206166309737</v>
       </c>
       <c r="X9" t="n">
-        <v>1.693795243991286</v>
+        <v>0.3781416403572204</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.2711201855062359</v>
+        <v>0.1364304850089051</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.507470045476708</v>
+        <v>1.616130042357602</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7978671676822046</v>
+        <v>0.24992568190359</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6192570901321561</v>
+        <v>0.1569774729276786</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.05270784597170747</v>
+        <v>0.4880711982722354</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.4700457169269843</v>
+        <v>-1.020813023933934</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.097665183636488</v>
+        <v>-0.1810155252618036</v>
       </c>
     </row>
     <row r="10">
@@ -1290,94 +1290,94 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.6965837614469976</v>
+        <v>0.8850152880679554</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.06356583849239886</v>
+        <v>-0.3691523082021095</v>
       </c>
       <c r="D10" t="n">
-        <v>0.850329188726712</v>
+        <v>-1.150190108317199</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8960209568433771</v>
+        <v>2.572560218258759</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3890714470058336</v>
+        <v>0.4208326971216178</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3956776341836394</v>
+        <v>-1.284434108465111</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6892852372558032</v>
+        <v>0.9699937034954578</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7837614231160573</v>
+        <v>0.1588658196387357</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1948989777257918</v>
+        <v>0.7978980889717664</v>
       </c>
       <c r="K10" t="n">
-        <v>1.229863112495685</v>
+        <v>-0.9588876052490959</v>
       </c>
       <c r="L10" t="n">
-        <v>1.938851212734501</v>
+        <v>-0.6870818688525308</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.833188577015166</v>
+        <v>1.94682592023969</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1061651704148315</v>
+        <v>-1.358123701036918</v>
       </c>
       <c r="O10" t="n">
-        <v>-1.382196689845585</v>
+        <v>0.1112739660119291</v>
       </c>
       <c r="P10" t="n">
-        <v>1.802992641753703</v>
+        <v>0.007300398582694757</v>
       </c>
       <c r="Q10" t="n">
-        <v>-1.040547865695284</v>
+        <v>0.8554384459470885</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2184595869570414</v>
+        <v>0.1523381498310363</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.4208243448636997</v>
+        <v>1.218514414741392</v>
       </c>
       <c r="T10" t="n">
-        <v>1.270096034051633</v>
+        <v>1.705825818065725</v>
       </c>
       <c r="U10" t="n">
-        <v>1.556758228073042</v>
+        <v>-0.09728716923775248</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.262938455849368</v>
+        <v>-0.2212316734580256</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6317930815214549</v>
+        <v>1.531309493373916</v>
       </c>
       <c r="X10" t="n">
-        <v>-1.684894434968286</v>
+        <v>1.765118118377561</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.4956213666888973</v>
+        <v>0.4471119378934345</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.3938511535262679</v>
+        <v>-1.099065854511972</v>
       </c>
       <c r="AA10" t="n">
-        <v>-1.113390789553403</v>
+        <v>-0.3900801342099275</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.494534805344649</v>
+        <v>0.3869917534817323</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6896336093004432</v>
+        <v>-1.477937344886175</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.5678351533993665</v>
+        <v>0.6824526158648572</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.13811337762157</v>
+        <v>-0.6038899573354777</v>
       </c>
     </row>
     <row r="11">
@@ -1385,94 +1385,94 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3432841586247652</v>
+        <v>0.6605212172036709</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6509131767698487</v>
+        <v>2.004087242806617</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5540164617138457</v>
+        <v>-0.4172756808814863</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.003289571736552</v>
+        <v>0.1098912977536938</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2026450385141618</v>
+        <v>0.5844101282555099</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8160864270582127</v>
+        <v>0.5430328027936622</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3391887074187787</v>
+        <v>-0.04726829419232614</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.119266790059424</v>
+        <v>0.1238355705764567</v>
       </c>
       <c r="J11" t="n">
-        <v>1.130552393494289</v>
+        <v>-1.263145617669596</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.8817555308435336</v>
+        <v>0.1995522476381827</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5623601216924213</v>
+        <v>0.3488954970406771</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.338868938098111</v>
+        <v>-0.4634998933836333</v>
       </c>
       <c r="N11" t="n">
-        <v>0.08290255341728341</v>
+        <v>-0.9051314498877557</v>
       </c>
       <c r="O11" t="n">
-        <v>1.145458652904056</v>
+        <v>-0.6433029444819863</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6609442289319999</v>
+        <v>-0.9769116787492717</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.074171521318851</v>
+        <v>-0.1568152296300094</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.7779722016535678</v>
+        <v>0.3181776998776306</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.4436543396844924</v>
+        <v>-1.638123700455019</v>
       </c>
       <c r="T11" t="n">
-        <v>0.711279270706649</v>
+        <v>0.3773558755561699</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.6162228728678474</v>
+        <v>0.9175209062668942</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.6082861007641096</v>
+        <v>-1.130808789264382</v>
       </c>
       <c r="W11" t="n">
-        <v>1.125912888304587</v>
+        <v>0.6225709689023637</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.6854530572105877</v>
+        <v>0.09883633881447713</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3642917061947545</v>
+        <v>-0.3262154790639849</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.5240137502216179</v>
+        <v>0.2911846050194342</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.0447438963186844</v>
+        <v>-0.5537131635696652</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.844027878062701</v>
+        <v>-1.684381165183635</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4974647598180974</v>
+        <v>0.2773105356080691</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.112331733933711</v>
+        <v>-0.5185211171518053</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.03749625085035555</v>
+        <v>0.7526055256292139</v>
       </c>
     </row>
     <row r="12">
@@ -1480,94 +1480,94 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.01514075111353202</v>
+        <v>1.711246600641779</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1360741479238516</v>
+        <v>-0.2739586945709818</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.403347646198448</v>
+        <v>-0.2269444817537404</v>
       </c>
       <c r="E12" t="n">
-        <v>1.132147047260273</v>
+        <v>0.5852672176020001</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4266843804988965</v>
+        <v>0.4526244430244237</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4752497317121673</v>
+        <v>-0.8031977254821629</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5299155918674278</v>
+        <v>0.751145245443928</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3998212552050984</v>
+        <v>-2.473442917189907</v>
       </c>
       <c r="J12" t="n">
-        <v>1.031729275418194</v>
+        <v>-0.9369320419302927</v>
       </c>
       <c r="K12" t="n">
-        <v>1.032176040102206</v>
+        <v>0.06185373207876984</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.3366149833562576</v>
+        <v>-0.003420608995626806</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.5245773530604123</v>
+        <v>1.277307854078143</v>
       </c>
       <c r="N12" t="n">
-        <v>1.771468411743246</v>
+        <v>1.217145857320217</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6260885987472848</v>
+        <v>-0.7070583784608412</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.206355831255677</v>
+        <v>2.182389386093635</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1389064294970795</v>
+        <v>-1.265584391742777</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.4345100406329864</v>
+        <v>0.6311898448991248</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.5328798682422761</v>
+        <v>0.9784876524747896</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0404393848113569</v>
+        <v>0.3242234255637314</v>
       </c>
       <c r="U12" t="n">
-        <v>1.732326248744151</v>
+        <v>2.087692891931145</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5668495005157883</v>
+        <v>1.237647720417659</v>
       </c>
       <c r="W12" t="n">
-        <v>-1.1854272566256</v>
+        <v>0.7570977182511438</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.9322334619461433</v>
+        <v>-0.4755689688621261</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.30219461534518</v>
+        <v>0.0784759497156866</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.5870883081506822</v>
+        <v>1.27486117718849</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.021245156520978</v>
+        <v>1.117006582295763</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0.3323261980318348</v>
+        <v>-0.6943607926247019</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2876802757587847</v>
+        <v>-1.110089515149369</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.8408148908231241</v>
+        <v>-0.2087692696782174</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.814584649655168</v>
+        <v>1.645166162222616</v>
       </c>
     </row>
     <row r="13">
@@ -1575,94 +1575,94 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1352475369214163</v>
+        <v>1.254737977066904</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.4022961823889172</v>
+        <v>-1.780355402044627</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05005453462739588</v>
+        <v>-1.285966024793626</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.9360524902133757</v>
+        <v>-0.9984893907021871</v>
       </c>
       <c r="F13" t="n">
-        <v>1.623564618032165</v>
+        <v>0.1453546211361443</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4780938174639573</v>
+        <v>-0.2093861078993722</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1097375617947733</v>
+        <v>1.046309152390138</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.888852396025164</v>
+        <v>-0.4698169638905756</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.111710248497238</v>
+        <v>0.008968875493134567</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.3661277137154198</v>
+        <v>0.4287186275768403</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.5423559028650126</v>
+        <v>-1.148320817768934</v>
       </c>
       <c r="M13" t="n">
-        <v>1.566584700965907</v>
+        <v>1.875287566919298</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4147303380104906</v>
+        <v>-0.5480417539304518</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8870789968733983</v>
+        <v>-0.363192476751988</v>
       </c>
       <c r="P13" t="n">
-        <v>1.776801391234387</v>
+        <v>-0.3803667228418767</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8076915464301464</v>
+        <v>0.09215817887687978</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1566196346531704</v>
+        <v>1.029365833012193</v>
       </c>
       <c r="S13" t="n">
-        <v>1.172659788619752</v>
+        <v>0.9729317472667066</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4955314241803976</v>
+        <v>-1.849005004528222</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5254145350774729</v>
+        <v>0.009828697090761949</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.434259565604856</v>
+        <v>-2.014019648250397</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.781214909446938</v>
+        <v>-1.226980387150362</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.1431625515865023</v>
+        <v>-0.4299512272709527</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1039615862019397</v>
+        <v>-0.06784428798437223</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.5069784260458208</v>
+        <v>0.3014144960021722</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.5248858748178296</v>
+        <v>1.653968382713905</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.428775734668508</v>
+        <v>1.030875347066468</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.798757187572813</v>
+        <v>0.09926752054957581</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.028552349228873</v>
+        <v>0.750442527785975</v>
       </c>
       <c r="AE13" t="n">
-        <v>-1.400743184401315</v>
+        <v>-0.1415007618155723</v>
       </c>
     </row>
     <row r="14">
@@ -1670,94 +1670,94 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8669634198371484</v>
+        <v>-0.6320038450913195</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1554045122539366</v>
+        <v>-0.4007016763317224</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5828981880331449</v>
+        <v>0.02437535649475465</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3699272144564582</v>
+        <v>-0.6844890674375061</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4485208001999643</v>
+        <v>1.496825408713756</v>
       </c>
       <c r="G14" t="n">
-        <v>2.113150582561819</v>
+        <v>0.4137788611690438</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3396475192805224</v>
+        <v>0.02905204859394056</v>
       </c>
       <c r="I14" t="n">
-        <v>2.066190422415369</v>
+        <v>1.664069868227718</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.5180779492217558</v>
+        <v>-0.257162309811451</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8485490788840481</v>
+        <v>0.05866035584680464</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.1344623743420016</v>
+        <v>0.7972054840331869</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7081524104311332</v>
+        <v>1.572265238963131</v>
       </c>
       <c r="N14" t="n">
-        <v>1.203010623929673</v>
+        <v>-0.9828603486660136</v>
       </c>
       <c r="O14" t="n">
-        <v>2.601061514506417</v>
+        <v>-0.06414391271347088</v>
       </c>
       <c r="P14" t="n">
-        <v>1.035533618337738</v>
+        <v>0.1081314938620952</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.2508132190922339</v>
+        <v>-1.367660329012593</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.4099485186514347</v>
+        <v>0.6910252541707986</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4422457783053272</v>
+        <v>0.01965951115283388</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.7334040064138849</v>
+        <v>0.5995984486633352</v>
       </c>
       <c r="U14" t="n">
-        <v>0.6622589509099608</v>
+        <v>-0.1332429807030557</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3883705983314343</v>
+        <v>-0.5415298777415513</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1479665417579454</v>
+        <v>-0.767233257468891</v>
       </c>
       <c r="X14" t="n">
-        <v>1.255033697492371</v>
+        <v>-1.762110469652046</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.498372254412852</v>
+        <v>-0.5640675860472936</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.105644759347217</v>
+        <v>-0.7388901302414943</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.6562497546451342</v>
+        <v>1.436540767365331</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.1876811580365565</v>
+        <v>0.983945521532839</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.1459852909879334</v>
+        <v>-0.6767460867880765</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.2829332565248789</v>
+        <v>-0.8240658909343073</v>
       </c>
       <c r="AE14" t="n">
-        <v>-1.077233744894552</v>
+        <v>0.7485177845261848</v>
       </c>
     </row>
     <row r="15">
@@ -1765,94 +1765,94 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.20558178066521</v>
+        <v>-0.5119755801247046</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.212462011149643</v>
+        <v>1.087326395785359</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.06853980429261733</v>
+        <v>0.209258164608399</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.868713929811882</v>
+        <v>1.348922914244588</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.040514862369359</v>
+        <v>0.444033829545846</v>
       </c>
       <c r="G15" t="n">
-        <v>1.486926256699942</v>
+        <v>-0.6325918810936408</v>
       </c>
       <c r="H15" t="n">
-        <v>1.214918692419511</v>
+        <v>-0.7289206804491805</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.5196353395722018</v>
+        <v>0.9745787746545772</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08001359972622886</v>
+        <v>0.08820191262170307</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.51279475728479</v>
+        <v>1.761713072607828</v>
       </c>
       <c r="L15" t="n">
-        <v>1.712583072678382</v>
+        <v>0.5693865273960715</v>
       </c>
       <c r="M15" t="n">
-        <v>1.069711699495077</v>
+        <v>-0.6065506702074338</v>
       </c>
       <c r="N15" t="n">
-        <v>-1.424856293160068</v>
+        <v>-0.1610332457250064</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2787411755970768</v>
+        <v>0.1649686881519826</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.80422148363222</v>
+        <v>-0.4074504681124177</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.260335500804274</v>
+        <v>-0.00629561107242505</v>
       </c>
       <c r="R15" t="n">
-        <v>1.096677121739412</v>
+        <v>0.5819370364353861</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3899440031735362</v>
+        <v>-0.4156731688366033</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4665344334415372</v>
+        <v>-0.6872904007883092</v>
       </c>
       <c r="U15" t="n">
-        <v>-1.162454414808687</v>
+        <v>-1.104558501441587</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31843699441979</v>
+        <v>1.399171688927913</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5158818765167953</v>
+        <v>-2.766901017769269</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.1410677669001265</v>
+        <v>-1.944896309555629</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.04864883636807189</v>
+        <v>-0.1016427950713467</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.7264329400737516</v>
+        <v>0.1969763384853837</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.4553314371427493</v>
+        <v>0.5165325363091241</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.3300629748703305</v>
+        <v>-0.2983335405262479</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3513590392598999</v>
+        <v>-1.613562734202253</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.2518519298935877</v>
+        <v>-0.03608140456729921</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.3684736074573514</v>
+        <v>1.207099660557352</v>
       </c>
     </row>
     <row r="16">
@@ -1860,94 +1860,94 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4506258423753735</v>
+        <v>-1.669252105128388</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.9155889234219774</v>
+        <v>-0.397156017483566</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1331977042530672</v>
+        <v>-0.3502738000480392</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3685149367056135</v>
+        <v>-1.379168992335261</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4367496119035912</v>
+        <v>0.9568166342746449</v>
       </c>
       <c r="G16" t="n">
-        <v>1.434157737283432</v>
+        <v>-1.761501668693443</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1527109565147426</v>
+        <v>-0.5148385991691232</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.278141834247294</v>
+        <v>-0.2785694508034133</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1840663993818284</v>
+        <v>0.3185047382230026</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7709039807809988</v>
+        <v>-0.1296310541508734</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4615680303294811</v>
+        <v>1.399734684667716</v>
       </c>
       <c r="M16" t="n">
-        <v>1.934507894915862</v>
+        <v>2.175236870514046</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.5222579061488263</v>
+        <v>0.3904998870418694</v>
       </c>
       <c r="O16" t="n">
-        <v>-2.55774775144002</v>
+        <v>0.3041068511592416</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.6086136609468833</v>
+        <v>0.9671771306036064</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.4314855933153617</v>
+        <v>0.3701188064620751</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8050065287988172</v>
+        <v>0.5189287121068274</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1471602411931552</v>
+        <v>0.6128605762567504</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.184934054543076</v>
+        <v>-0.9057646459949685</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3630601916014161</v>
+        <v>-2.251388064611841</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.454963180536312</v>
+        <v>0.9606015553403314</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0007891217218043571</v>
+        <v>0.5377768912359313</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1915747863293924</v>
+        <v>0.6573458941255912</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3373034896516479</v>
+        <v>-0.3772147900326216</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.308370012696567</v>
+        <v>-0.2826772349927214</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.6813465930879904</v>
+        <v>-1.153143176796635</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.8760328158114853</v>
+        <v>0.052108720256236</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.5229145723845046</v>
+        <v>0.3187240296398348</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.7966336906128961</v>
+        <v>-0.4027385307476445</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.9790009612687937</v>
+        <v>-0.4630670547203367</v>
       </c>
     </row>
     <row r="17">
@@ -1955,94 +1955,94 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.8222927231830581</v>
+        <v>-0.1343571159970528</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2278839742855958</v>
+        <v>1.340303240335355</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9604531879764793</v>
+        <v>-2.529844467379641</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1243824615967464</v>
+        <v>-0.4486428736390247</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3773151556113209</v>
+        <v>-0.2655919518185944</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1513771880193559</v>
+        <v>-0.2604345889578291</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.306194188315464</v>
+        <v>1.227545999849966</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5888356997903724</v>
+        <v>-0.4539002510445532</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.164449137142091</v>
+        <v>0.2056767460353257</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5412196595063865</v>
+        <v>1.485100435351791</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.058135281334817</v>
+        <v>1.279468772806288</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.6888056766395279</v>
+        <v>-0.4717102512193126</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7909526890637293</v>
+        <v>-1.324136754149395</v>
       </c>
       <c r="O17" t="n">
-        <v>1.782515314572076</v>
+        <v>-0.2165278770140394</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7921102358135722</v>
+        <v>0.7355874588541466</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.4074722270678893</v>
+        <v>-0.8583003880470611</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9849113188204878</v>
+        <v>-0.4002562843320951</v>
       </c>
       <c r="S17" t="n">
-        <v>1.367604291288601</v>
+        <v>-0.02593887702258386</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.12565054768549</v>
+        <v>0.1152400119489803</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.1192460991658763</v>
+        <v>0.8917171583888964</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.9042618252685405</v>
+        <v>1.181892277873696</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.9419126035441088</v>
+        <v>2.574583854145105</v>
       </c>
       <c r="X17" t="n">
-        <v>0.4062440645660001</v>
+        <v>0.8467377369547882</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.6965209927882413</v>
+        <v>-0.6921903981639795</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.3756176746000077</v>
+        <v>-0.2302082071515354</v>
       </c>
       <c r="AA17" t="n">
-        <v>-1.007936487548291</v>
+        <v>-0.8255455444185383</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.5641279578171855</v>
+        <v>-0.7017638993512753</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.1101094252450662</v>
+        <v>0.03092633908495608</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.7566476932109941</v>
+        <v>-1.607080282562529</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.1318214651324599</v>
+        <v>-0.5058065379336688</v>
       </c>
     </row>
     <row r="18">
@@ -2050,94 +2050,94 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5222512374169623</v>
+        <v>1.603330956022441</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.286443076097801</v>
+        <v>-0.4569123383495037</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7463225125760271</v>
+        <v>-1.414472331326515</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1271857135081186</v>
+        <v>0.1175164244175539</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6232810588638319</v>
+        <v>1.643592846281067</v>
       </c>
       <c r="G18" t="n">
-        <v>1.07939013819873</v>
+        <v>0.7116876299010616</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2343736379659739</v>
+        <v>1.115388250829489</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.061769935058702</v>
+        <v>-1.214080598324154</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.2201186650307515</v>
+        <v>1.176121653645053</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.569850703029701</v>
+        <v>-1.240242989705491</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.2209718060577486</v>
+        <v>-0.9248908743113211</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.2421172311574864</v>
+        <v>-1.498142996166573</v>
       </c>
       <c r="N18" t="n">
-        <v>1.007189135529454</v>
+        <v>-0.5754183614055711</v>
       </c>
       <c r="O18" t="n">
-        <v>1.452857858887669</v>
+        <v>-1.973206821407835</v>
       </c>
       <c r="P18" t="n">
-        <v>1.37040618355075</v>
+        <v>0.3508855538488981</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4801989584209518</v>
+        <v>0.08253995536995161</v>
       </c>
       <c r="R18" t="n">
-        <v>1.76909463644005</v>
+        <v>1.783728736110635</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.724117687358255</v>
+        <v>-0.7289247912908782</v>
       </c>
       <c r="T18" t="n">
-        <v>2.096497841497348</v>
+        <v>0.774238366285959</v>
       </c>
       <c r="U18" t="n">
-        <v>-1.409332065947559</v>
+        <v>-0.1875033421204669</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.1887077944346382</v>
+        <v>-0.2526285507910022</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1992174280736397</v>
+        <v>1.154469108364698</v>
       </c>
       <c r="X18" t="n">
-        <v>0.1600867302404624</v>
+        <v>-0.5908252782313178</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.4957340515554117</v>
+        <v>-0.7917117246777396</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.1113758275194646</v>
+        <v>-0.757247956957112</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.5308585523198484</v>
+        <v>-0.5784044764433587</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.4956848316369895</v>
+        <v>1.566290420334823</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.8463953598781682</v>
+        <v>-0.5410379929985765</v>
       </c>
       <c r="AD18" t="n">
-        <v>-1.947113238085918</v>
+        <v>-1.271403682502801</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.437104134791099</v>
+        <v>0.2111000045826027</v>
       </c>
     </row>
     <row r="19">
@@ -2145,94 +2145,94 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1135158444096111</v>
+        <v>-0.02899992845525146</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4383801120190802</v>
+        <v>0.3864111957559372</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1479210731595528</v>
+        <v>-0.1401184574402159</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08206417608890824</v>
+        <v>0.5161375493273856</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.168652440456656</v>
+        <v>-0.02872081495997945</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.334783297690828</v>
+        <v>0.6413959068227834</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.148471679240547</v>
+        <v>0.01999314466103619</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2976178992113061</v>
+        <v>-0.09524055097933987</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.4353326427094809</v>
+        <v>0.09200436578680472</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8392957324940881</v>
+        <v>1.02934066073308</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.3825175787999444</v>
+        <v>0.6568444967625855</v>
       </c>
       <c r="M19" t="n">
-        <v>-2.371695738012588</v>
+        <v>-0.08375541833611258</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.8772716052794471</v>
+        <v>-0.2917638763614274</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3553917761085075</v>
+        <v>-0.0630935227559397</v>
       </c>
       <c r="P19" t="n">
-        <v>1.957421328312025</v>
+        <v>-0.2591303254015958</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.3410722228282744</v>
+        <v>0.1747952014241454</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5061451141855349</v>
+        <v>2.055753860143143</v>
       </c>
       <c r="S19" t="n">
-        <v>1.335953174621657</v>
+        <v>1.129677412418669</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.2626073700770101</v>
+        <v>-0.8155615742256854</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.6584568890862468</v>
+        <v>-0.3800122279616037</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.7617774384821032</v>
+        <v>0.6989530376270705</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.9867778165338695</v>
+        <v>-0.465874930932653</v>
       </c>
       <c r="X19" t="n">
-        <v>-2.198752443367</v>
+        <v>2.18605149758052</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.5984212668114176</v>
+        <v>0.6749990185390532</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.049429779339079</v>
+        <v>-0.2470448101002035</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.1660636774171345</v>
+        <v>-0.2437934429156595</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.7268771762180793</v>
+        <v>0.9567515769965472</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.07607480283158082</v>
+        <v>-0.03791279004376461</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.737087740612528</v>
+        <v>0.6314283118920828</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.1405262136407481</v>
+        <v>1.061710180666184</v>
       </c>
     </row>
     <row r="20">
@@ -2240,94 +2240,94 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.269584492624093</v>
+        <v>0.9648283777177307</v>
       </c>
       <c r="C20" t="n">
-        <v>0.664308754804269</v>
+        <v>-0.04742671794583483</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2351011088674723</v>
+        <v>0.502119134709228</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3787363307656464</v>
+        <v>-0.2652696598489761</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5601713232988575</v>
+        <v>0.02630409272262836</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.357798351343532</v>
+        <v>0.3385976686970496</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3286099087954893</v>
+        <v>-1.755614783759936</v>
       </c>
       <c r="I20" t="n">
-        <v>-2.316510319897612</v>
+        <v>0.4116015021948988</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.772211123734231</v>
+        <v>0.6124137757841357</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.9618479503591775</v>
+        <v>-1.399395930287842</v>
       </c>
       <c r="L20" t="n">
-        <v>1.510059183641085</v>
+        <v>-0.4813975482673291</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8695904524108284</v>
+        <v>0.7443218627064765</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.2299325810378219</v>
+        <v>-1.155196261842878</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.8065038476635026</v>
+        <v>-0.380818516751093</v>
       </c>
       <c r="P20" t="n">
-        <v>0.09009947375514864</v>
+        <v>0.5044585897679941</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8895604404575088</v>
+        <v>-0.04110506715828392</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.9310818977302657</v>
+        <v>-0.6758406928980845</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.15446960766107</v>
+        <v>0.2483092972547497</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.455117076301089</v>
+        <v>-0.4562054378594443</v>
       </c>
       <c r="U20" t="n">
-        <v>1.387144197949947</v>
+        <v>1.52154765290789</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.6721876947557394</v>
+        <v>0.6747777152574831</v>
       </c>
       <c r="W20" t="n">
-        <v>1.093028335650437</v>
+        <v>-2.13037899238708</v>
       </c>
       <c r="X20" t="n">
-        <v>0.6578726579709928</v>
+        <v>0.2300359204419919</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.7805010602520841</v>
+        <v>0.5009327860811372</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.4648539296001506</v>
+        <v>0.6988354230940201</v>
       </c>
       <c r="AA20" t="n">
-        <v>-0.00249397118313931</v>
+        <v>0.3185597588119704</v>
       </c>
       <c r="AB20" t="n">
-        <v>-0.8920111025040652</v>
+        <v>1.669318532721746</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.06792390331557688</v>
+        <v>1.049730634034616</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.2659278554588201</v>
+        <v>0.6394492469342965</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.04304490062504117</v>
+        <v>0.9633763853038375</v>
       </c>
     </row>
     <row r="21">
@@ -2335,94 +2335,94 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4567043524323449</v>
+        <v>-0.7369029547458849</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.535370926308292</v>
+        <v>2.062778414094215</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1021164077860934</v>
+        <v>0.2232521100708194</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.3752012248467063</v>
+        <v>0.7768388767466944</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4984708800834106</v>
+        <v>0.2973857793719406</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.424659055190548</v>
+        <v>-0.5769051487486621</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5914934434338924</v>
+        <v>-0.7647900041176351</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.3969646115580928</v>
+        <v>1.041715655692778</v>
       </c>
       <c r="J21" t="n">
-        <v>1.089087137407451</v>
+        <v>-0.485551200259371</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4289250171100968</v>
+        <v>1.108809160551078</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6540811933164442</v>
+        <v>0.7610896114149911</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.7842930297169206</v>
+        <v>0.5114019904193</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.772130858239422</v>
+        <v>0.01599956887981064</v>
       </c>
       <c r="O21" t="n">
-        <v>1.858740106596122</v>
+        <v>-0.8667375364355482</v>
       </c>
       <c r="P21" t="n">
-        <v>-1.011863969617163</v>
+        <v>-1.174021208859568</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6094086445028245</v>
+        <v>-1.360594375416316</v>
       </c>
       <c r="R21" t="n">
-        <v>0.601866562224124</v>
+        <v>-0.06224928804108835</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1796763634363728</v>
+        <v>0.09655258654994404</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.7809670838381665</v>
+        <v>0.03434951176356441</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.4533293807077149</v>
+        <v>1.213643423717336</v>
       </c>
       <c r="V21" t="n">
-        <v>1.057510841135557</v>
+        <v>0.6582329889518137</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0309254985709095</v>
+        <v>-0.2075352862331216</v>
       </c>
       <c r="X21" t="n">
-        <v>0.7604621946971027</v>
+        <v>-1.268175524288977</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.6511887610563921</v>
+        <v>1.360975251093106</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.3790739826479195</v>
+        <v>1.306754760860816</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.006032070932639294</v>
+        <v>-0.4553041871230847</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.7246466062260793</v>
+        <v>0.5292013260426858</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.5422886213276733</v>
+        <v>0.8132927590893123</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0840431486231914</v>
+        <v>1.907128954386144</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.6842497161081341</v>
+        <v>0.5539127515144014</v>
       </c>
     </row>
   </sheetData>
